--- a/biology/Botanique/Balanites/Balanites.xlsx
+++ b/biology/Botanique/Balanites/Balanites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Balanites est un genre de plantes dicotylédones, de la famille des Zygophyllacées. Il comprend deux douzaines d'espèces.
 Ce sont des arbres ou des arbustes des régions tropicales (sauf en Amérique). Le plus connu est le Dattier du désert (Balanites aegyptiaca). 
@@ -513,7 +525,9 @@
           <t>Sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Balanites aegyptiaca
 Balanites maughamii
